--- a/F+/Assets/Resources/DataTable/ShieldTable/ShieldTable.xlsx
+++ b/F+/Assets/Resources/DataTable/ShieldTable/ShieldTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhs70\Documents\F-\F+\Assets\Resources\DataTable\ShieldTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhs70\Documents\F-\F+\Assets\Resources\DataTable\shieldTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1"/>
@@ -53,6 +53,13 @@
     <t>すげぇ名前だな</t>
     <rPh sb="3" eb="5">
       <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素手</t>
+    <rPh sb="0" eb="2">
+      <t>スデ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -384,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -414,16 +421,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.85">
@@ -431,15 +438,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
     </row>
